--- a/relatorio_vendas.xlsx
+++ b/relatorio_vendas.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Top Produtos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Horários de Pico" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Produtos Rentáveis" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Lucratividade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Participação Faturamento" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Margem Lucro Produto" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,31 +452,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pizza Margherita</t>
+          <t>Refrigerante Coca-Cola</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Refrigerante Coca</t>
+          <t>Cerveja Lager</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sorvete Chocolate</t>
+          <t>Cerveja Artesanal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Espaguete à Bolonhesa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Pizza Margherita</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Frango Grelhado</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Cerveja Pilsen</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Pepsi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Água Mineral</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,29 +571,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hora</t>
+          <t>produto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>valor_total</t>
+          <t>rentabilidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>14</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Pizza Margherita</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>88.3</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>15</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Espaguete à Bolonhesa</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Strogonoff de Frango</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Frango Grelhado</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lagosta Grelhada</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cerveja Artesanal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Bacalhau ao Forno</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca-Cola</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Costela Bovina Assada</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Filé Mignon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +718,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
@@ -572,7 +728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.8</v>
+        <v>794.8</v>
       </c>
     </row>
     <row r="4">
@@ -582,7 +738,199 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.5</v>
+        <v>244.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.9360671338351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Pratos Principais</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.75629379704127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.30763906912362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>produto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>margem_lucro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Café Expresso</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Chá Gelado Limão</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca-Cola</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Pepsi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Suco de Uva</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Guarana Jesus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Schweppes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante Itubaina</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Refrigerante H2OH!</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
